--- a/biology/Botanique/Pin_gris/Pin_gris.xlsx
+++ b/biology/Botanique/Pin_gris/Pin_gris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinus banksiana
 Le  pin gris  (Pinus banksiana) est un arbre appartenant au genre Pinus et à la famille des Pinacées. On le trouve dans la forêt boréale en Amérique du Nord à l'est des Montagnes Rocheuses.
 Il s'agit d'un arbre de taille moyenne pouvant atteindre de 9 à 22 m.
 Cette espèce est très présente à partir du 49e parallèle et occupe une part très importante dans les productions forestières du nord du Québec (région de l'Abitibi Témiscamingue) avec l'épinette noire.
-Dans l'extrême ouest de son aire de répartition, le pin gris s'hybride facilement avec le pin tordu (Pinus contorta), qui lui est étroitement apparenté. Le nom banksiana provient du botaniste anglais Joseph Banks[1]. 
-En français canadien, il est communément nommé cyprès[2], bien qu'il n'appartienne pas à la famille des vrais cyprès.
+Dans l'extrême ouest de son aire de répartition, le pin gris s'hybride facilement avec le pin tordu (Pinus contorta), qui lui est étroitement apparenté. Le nom banksiana provient du botaniste anglais Joseph Banks. 
+En français canadien, il est communément nommé cyprès, bien qu'il n'appartienne pas à la famille des vrais cyprès.
 La Paruline de Kirtland (Dendroica kirtlandii), un petit oiseau de la famille des Parulidae et actuellement considéré comme quasi menacé, dépend en grande partie du pin gris pour sa reproduction.
 </t>
         </is>
@@ -517,7 +529,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Écorce mince, brun rougeâtre à gris, puis brun foncé, écailleuse et marquée de sillons irréguliers.
 Rameau glabre, vert jaunâtre.
@@ -551,9 +565,11 @@
           <t>Ennemis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la suite des ravages sur les Pins de Murray (Pinus contorta), le Dendroctone du pin (Dendroctonus ponderosae) semble désormais s'attaquer aux populations de Pins gris de la forêt boréale nord-américaine[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite des ravages sur les Pins de Murray (Pinus contorta), le Dendroctone du pin (Dendroctonus ponderosae) semble désormais s'attaquer aux populations de Pins gris de la forêt boréale nord-américaine.
 </t>
         </is>
       </c>
